--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAP ME\Desktop\داتا ساينس دبلومه\new projects\maintinance plan\maintinance app.py\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAP ME\Desktop\داتا ساينس دبلومه\new projects\maintinance plan\maintinance-app.py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54B0040-B3C4-45F0-9759-906EBE50F1DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D7501E-6831-4183-928D-AD1B1DCED180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="58">
   <si>
     <t>card</t>
   </si>
@@ -1209,7 +1209,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1336,6 +1336,9 @@
         <v>755</v>
       </c>
       <c r="E7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" t="s">
         <v>47</v>
       </c>
     </row>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAP ME\Desktop\داتا ساينس دبلومه\new projects\maintinance plan\maintinance-app.py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D7501E-6831-4183-928D-AD1B1DCED180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3241D9B-F0A4-4F52-8834-62BBCC62485F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2550" yWindow="2550" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Machine" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,17 @@
     <sheet name="Card1" sheetId="5" r:id="rId5"/>
     <sheet name="ServicePlan" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
     </ext>
@@ -575,9 +584,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -613,7 +634,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>555</v>
+        <v>155</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -636,7 +657,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -662,7 +683,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>555</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1208,7 +1229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -1762,7 +1783,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1964,9 +1987,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="110.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAP ME\Desktop\داتا ساينس دبلومه\new projects\maintinance plan\maintinance-app.py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3241D9B-F0A4-4F52-8834-62BBCC62485F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F19CBA-2734-4AFF-8141-702F232C7582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2550" yWindow="2550" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Machine" sheetId="1" r:id="rId1"/>
     <sheet name="Card2" sheetId="2" r:id="rId2"/>
     <sheet name="Card1 (4)" sheetId="3" r:id="rId3"/>
-    <sheet name="Card1 (3)" sheetId="4" r:id="rId4"/>
+    <sheet name="Card3" sheetId="4" r:id="rId4"/>
     <sheet name="Card1" sheetId="5" r:id="rId5"/>
     <sheet name="ServicePlan" sheetId="6" r:id="rId6"/>
   </sheets>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="58">
   <si>
     <t>card</t>
   </si>
@@ -584,7 +584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1605,7 +1605,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1667,6 +1669,9 @@
       </c>
       <c r="C3">
         <v>300</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
       </c>
       <c r="H3" t="s">
         <v>46</v>

--- a/Machine_Service_Lookup.xlsx
+++ b/Machine_Service_Lookup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAP ME\Desktop\داتا ساينس دبلومه\new projects\maintinance plan\maintinance-app.py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F19CBA-2734-4AFF-8141-702F232C7582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53560B3E-8E48-4DB0-BFCA-070F4805E079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Machine" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="60">
   <si>
     <t>card</t>
   </si>
@@ -220,6 +220,12 @@
   </si>
   <si>
     <t>Replace all</t>
+  </si>
+  <si>
+    <t>11\5\2024</t>
+  </si>
+  <si>
+    <t>22\3\2025</t>
   </si>
 </sst>
 </file>
@@ -275,11 +281,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1229,11 +1236,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1274,149 +1293,244 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>150</v>
       </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>151</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>300</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>177</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>301</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>450</v>
       </c>
-      <c r="F4" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>451</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>550</v>
       </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>551</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>700</v>
       </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>2</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>701</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>850</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>755</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G7" t="s">
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>851</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>1000</v>
       </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>2</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>1001</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>1150</v>
       </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>2</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>1151</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>1300</v>
       </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="2">
         <v>2</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>1301</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>1450</v>
       </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="2">
         <v>2</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>1451</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>1500</v>
       </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1605,7 +1719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
